--- a/DolphinApiTest/target/test-classes/SIT_TESTDATA.xlsx
+++ b/DolphinApiTest/target/test-classes/SIT_TESTDATA.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A494BADB-38AF-40D0-910D-FCB4B60DD8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AA1EF7B7-5E66-4652-B1C1-B5BCFBEDC17F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="16500" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16530" windowHeight="11820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TokenApiTest" sheetId="1" r:id="rId1"/>
     <sheet name="LE_FTSP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F3:L4"/>
+  <oleSize ref="A3:F14"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
